--- a/data/pca/factorExposure/factorExposure_2015-06-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01907180335146849</v>
+        <v>0.008292648116064453</v>
       </c>
       <c r="C2">
-        <v>0.02218858035322856</v>
+        <v>-0.0503876390597185</v>
       </c>
       <c r="D2">
-        <v>-0.112964889837222</v>
+        <v>-0.1362391339762289</v>
       </c>
       <c r="E2">
-        <v>0.002856034081176093</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.007784291608419274</v>
+      </c>
+      <c r="F2">
+        <v>-0.0165928541654515</v>
+      </c>
+      <c r="G2">
+        <v>0.1258604291011852</v>
+      </c>
+      <c r="H2">
+        <v>0.06558727599160138</v>
+      </c>
+      <c r="I2">
+        <v>0.03176616423260652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.004450238169133596</v>
+        <v>-0.00452066459456776</v>
       </c>
       <c r="C3">
-        <v>0.007766156211268117</v>
+        <v>-0.002747537734560959</v>
       </c>
       <c r="D3">
-        <v>0.0009681647431061756</v>
+        <v>-0.003882427340552708</v>
       </c>
       <c r="E3">
-        <v>0.00330900866559893</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.01329858320675323</v>
+      </c>
+      <c r="F3">
+        <v>0.007236048625996122</v>
+      </c>
+      <c r="G3">
+        <v>-0.005550466529221611</v>
+      </c>
+      <c r="H3">
+        <v>-0.01402878606748389</v>
+      </c>
+      <c r="I3">
+        <v>0.007704948660892687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04514486324027506</v>
+        <v>0.01881101325000498</v>
       </c>
       <c r="C4">
-        <v>0.06873375315316342</v>
+        <v>-0.09998510915588321</v>
       </c>
       <c r="D4">
-        <v>-0.1338071342253838</v>
+        <v>-0.138704294330452</v>
       </c>
       <c r="E4">
-        <v>0.07825217189045748</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01535383730154628</v>
+      </c>
+      <c r="F4">
+        <v>-0.08666605728757312</v>
+      </c>
+      <c r="G4">
+        <v>0.006901190366902513</v>
+      </c>
+      <c r="H4">
+        <v>0.05094834904854596</v>
+      </c>
+      <c r="I4">
+        <v>-0.06184290844836793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02377935066348821</v>
+        <v>0.02680009350199116</v>
       </c>
       <c r="C6">
-        <v>0.01248228683941771</v>
+        <v>-0.03014145054923737</v>
       </c>
       <c r="D6">
-        <v>-0.1412201772860281</v>
+        <v>-0.1282561744996402</v>
       </c>
       <c r="E6">
-        <v>0.03437760367569334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.04675020166403019</v>
+      </c>
+      <c r="F6">
+        <v>-0.05106162343497195</v>
+      </c>
+      <c r="G6">
+        <v>0.001280337593480466</v>
+      </c>
+      <c r="H6">
+        <v>0.06954678951065282</v>
+      </c>
+      <c r="I6">
+        <v>0.005901364130915372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.006890684550552908</v>
+        <v>0.008955854422009038</v>
       </c>
       <c r="C7">
-        <v>0.0221982402495951</v>
+        <v>-0.03255267134231189</v>
       </c>
       <c r="D7">
-        <v>-0.1133811349711359</v>
+        <v>-0.1007616092852821</v>
       </c>
       <c r="E7">
-        <v>-0.0005642905377561141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05094799406150749</v>
+      </c>
+      <c r="F7">
+        <v>-0.008661915109779844</v>
+      </c>
+      <c r="G7">
+        <v>-0.008916315140341129</v>
+      </c>
+      <c r="H7">
+        <v>0.0786774547308435</v>
+      </c>
+      <c r="I7">
+        <v>0.01583719189806032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.002227352393400976</v>
+        <v>-0.01155191967253981</v>
       </c>
       <c r="C8">
-        <v>0.02576924676858361</v>
+        <v>-0.03170163396062098</v>
       </c>
       <c r="D8">
-        <v>-0.08144555142769633</v>
+        <v>-0.07809582591377612</v>
       </c>
       <c r="E8">
-        <v>0.02235799533298063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02070269287831982</v>
+      </c>
+      <c r="F8">
+        <v>-0.04192417472215734</v>
+      </c>
+      <c r="G8">
+        <v>0.06157112257508292</v>
+      </c>
+      <c r="H8">
+        <v>0.002500660593082221</v>
+      </c>
+      <c r="I8">
+        <v>0.02640441738643657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03867753016555925</v>
+        <v>0.01384494561583646</v>
       </c>
       <c r="C9">
-        <v>0.05838149448420913</v>
+        <v>-0.08341902768478568</v>
       </c>
       <c r="D9">
-        <v>-0.1324853181940569</v>
+        <v>-0.1200133658034702</v>
       </c>
       <c r="E9">
-        <v>0.06305017917629019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.005976544861319599</v>
+      </c>
+      <c r="F9">
+        <v>-0.05665450882409511</v>
+      </c>
+      <c r="G9">
+        <v>-0.01434628270022498</v>
+      </c>
+      <c r="H9">
+        <v>0.06227813676049925</v>
+      </c>
+      <c r="I9">
+        <v>-0.02494085125304914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1564603071733911</v>
+        <v>0.2323867357680226</v>
       </c>
       <c r="C10">
-        <v>-0.1785229103142524</v>
+        <v>0.1014287407134438</v>
       </c>
       <c r="D10">
-        <v>-0.009119981168971426</v>
+        <v>0.00560161187951601</v>
       </c>
       <c r="E10">
-        <v>0.04659906694887232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02659470677208731</v>
+      </c>
+      <c r="F10">
+        <v>-0.04015792247317979</v>
+      </c>
+      <c r="G10">
+        <v>0.003996046081951465</v>
+      </c>
+      <c r="H10">
+        <v>-0.06701938538184075</v>
+      </c>
+      <c r="I10">
+        <v>0.09470635069744901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02142459400444798</v>
+        <v>0.00915253522454261</v>
       </c>
       <c r="C11">
-        <v>0.0392932493339823</v>
+        <v>-0.05205065507159428</v>
       </c>
       <c r="D11">
-        <v>-0.04915809077351903</v>
+        <v>-0.04311247427361015</v>
       </c>
       <c r="E11">
-        <v>-0.01611541170420822</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01992476405027573</v>
+      </c>
+      <c r="F11">
+        <v>0.01170494085056912</v>
+      </c>
+      <c r="G11">
+        <v>-0.005271640780984451</v>
+      </c>
+      <c r="H11">
+        <v>0.04952823073237082</v>
+      </c>
+      <c r="I11">
+        <v>-0.05199347764442134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02348810289393109</v>
+        <v>0.0101969699092281</v>
       </c>
       <c r="C12">
-        <v>0.03972627048614655</v>
+        <v>-0.04898863015820208</v>
       </c>
       <c r="D12">
-        <v>-0.06312325505077633</v>
+        <v>-0.04883035412220922</v>
       </c>
       <c r="E12">
-        <v>-0.007258313685488007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01944152542489396</v>
+      </c>
+      <c r="F12">
+        <v>0.01749151635147507</v>
+      </c>
+      <c r="G12">
+        <v>-0.02669047686419963</v>
+      </c>
+      <c r="H12">
+        <v>0.07109450875930781</v>
+      </c>
+      <c r="I12">
+        <v>-0.02943751674528226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.005161298237312649</v>
+        <v>-0.002252697172935693</v>
       </c>
       <c r="C13">
-        <v>0.022876387816573</v>
+        <v>-0.04120813284278663</v>
       </c>
       <c r="D13">
-        <v>-0.1472194383090998</v>
+        <v>-0.1485915811922189</v>
       </c>
       <c r="E13">
-        <v>0.03336237451098104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03733530015460937</v>
+      </c>
+      <c r="F13">
+        <v>-0.0388250902780553</v>
+      </c>
+      <c r="G13">
+        <v>0.03763414349755113</v>
+      </c>
+      <c r="H13">
+        <v>0.08420512700957951</v>
+      </c>
+      <c r="I13">
+        <v>0.1150998819243946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.003428324374155003</v>
+        <v>-0.001627865375503275</v>
       </c>
       <c r="C14">
-        <v>0.0178879826636925</v>
+        <v>-0.02610312768290914</v>
       </c>
       <c r="D14">
-        <v>-0.09959266514486981</v>
+        <v>-0.1030570843097169</v>
       </c>
       <c r="E14">
-        <v>0.007619652425905852</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.0297278309838692</v>
+      </c>
+      <c r="F14">
+        <v>-0.02837728704103566</v>
+      </c>
+      <c r="G14">
+        <v>0.0153799210688114</v>
+      </c>
+      <c r="H14">
+        <v>0.13303815773626</v>
+      </c>
+      <c r="I14">
+        <v>0.01930085825153818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001265495012589652</v>
+        <v>-0.001223766518107936</v>
       </c>
       <c r="C15">
-        <v>0.01025971730284648</v>
+        <v>-0.01946166664386931</v>
       </c>
       <c r="D15">
-        <v>-0.0274165718342845</v>
+        <v>-0.05434255956198698</v>
       </c>
       <c r="E15">
-        <v>-0.003697626779041005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.006151803310464449</v>
+      </c>
+      <c r="F15">
+        <v>-0.004426848748169366</v>
+      </c>
+      <c r="G15">
+        <v>0.0223335326126413</v>
+      </c>
+      <c r="H15">
+        <v>0.02858994253918164</v>
+      </c>
+      <c r="I15">
+        <v>-0.01869664342966554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02172112504181051</v>
+        <v>0.009966543603535343</v>
       </c>
       <c r="C16">
-        <v>0.03743310306969635</v>
+        <v>-0.04770391059367469</v>
       </c>
       <c r="D16">
-        <v>-0.05639028704997526</v>
+        <v>-0.04479625429210791</v>
       </c>
       <c r="E16">
-        <v>-0.009832603805370205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02152544751171552</v>
+      </c>
+      <c r="F16">
+        <v>0.008507721341692757</v>
+      </c>
+      <c r="G16">
+        <v>-0.01764178105732744</v>
+      </c>
+      <c r="H16">
+        <v>0.05382375063996971</v>
+      </c>
+      <c r="I16">
+        <v>-0.04660217553398364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.005744740070403489</v>
+        <v>0.0001451434830911193</v>
       </c>
       <c r="C19">
-        <v>0.01955693170913753</v>
+        <v>-0.01834466738472854</v>
       </c>
       <c r="D19">
-        <v>-0.107956140450842</v>
+        <v>-0.06912632381425082</v>
       </c>
       <c r="E19">
-        <v>0.0415763533322593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.02029516107750201</v>
+      </c>
+      <c r="F19">
+        <v>-0.006762646523230468</v>
+      </c>
+      <c r="G19">
+        <v>0.01052066172686217</v>
+      </c>
+      <c r="H19">
+        <v>0.0655630564288254</v>
+      </c>
+      <c r="I19">
+        <v>0.04471936542659809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.004700870036707914</v>
+        <v>0.003614482321674006</v>
       </c>
       <c r="C20">
-        <v>0.02412778837328766</v>
+        <v>-0.03705571801987238</v>
       </c>
       <c r="D20">
-        <v>-0.08901566124665618</v>
+        <v>-0.09519329299437333</v>
       </c>
       <c r="E20">
-        <v>0.03266961292400755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.008427304307334398</v>
+      </c>
+      <c r="F20">
+        <v>-0.02611627731261282</v>
+      </c>
+      <c r="G20">
+        <v>-0.005140112602872276</v>
+      </c>
+      <c r="H20">
+        <v>0.05856889438202646</v>
+      </c>
+      <c r="I20">
+        <v>-0.02254189295023473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.008010310921633386</v>
+        <v>0.001708718499028562</v>
       </c>
       <c r="C21">
-        <v>0.028747172546272</v>
+        <v>-0.03935190908610751</v>
       </c>
       <c r="D21">
-        <v>-0.1648653753897396</v>
+        <v>-0.1320228589349006</v>
       </c>
       <c r="E21">
-        <v>0.06997343640174444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.0004030753391970988</v>
+      </c>
+      <c r="F21">
+        <v>-0.07941462309893792</v>
+      </c>
+      <c r="G21">
+        <v>0.0270108896139965</v>
+      </c>
+      <c r="H21">
+        <v>0.2002621567848643</v>
+      </c>
+      <c r="I21">
+        <v>0.1606177466627186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.002569992016478402</v>
+        <v>-0.01100081172009362</v>
       </c>
       <c r="C22">
-        <v>0.06068513484531829</v>
+        <v>-0.08167563576415744</v>
       </c>
       <c r="D22">
-        <v>-0.2362811105511026</v>
+        <v>-0.2707593154812702</v>
       </c>
       <c r="E22">
-        <v>-0.02715153991390058</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0490813452233177</v>
+      </c>
+      <c r="F22">
+        <v>-0.03426666989927911</v>
+      </c>
+      <c r="G22">
+        <v>0.3549601777759268</v>
+      </c>
+      <c r="H22">
+        <v>-0.3799195407302904</v>
+      </c>
+      <c r="I22">
+        <v>-0.1256678962317675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.002837088583381897</v>
+        <v>-0.01059747576475838</v>
       </c>
       <c r="C23">
-        <v>0.0611655924390837</v>
+        <v>-0.08259491922451948</v>
       </c>
       <c r="D23">
-        <v>-0.2358490206522949</v>
+        <v>-0.2714182344291072</v>
       </c>
       <c r="E23">
-        <v>-0.0269852304247234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.04583692829831083</v>
+      </c>
+      <c r="F23">
+        <v>-0.03376777011605613</v>
+      </c>
+      <c r="G23">
+        <v>0.3542389037503333</v>
+      </c>
+      <c r="H23">
+        <v>-0.3801273512871267</v>
+      </c>
+      <c r="I23">
+        <v>-0.1262459041401597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02811871998878272</v>
+        <v>0.008988932275790435</v>
       </c>
       <c r="C24">
-        <v>0.05570454054644815</v>
+        <v>-0.06475325784304409</v>
       </c>
       <c r="D24">
-        <v>-0.06882092188194565</v>
+        <v>-0.05248159093920077</v>
       </c>
       <c r="E24">
-        <v>-0.005850392138779941</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02540775342275924</v>
+      </c>
+      <c r="F24">
+        <v>0.005898263116064097</v>
+      </c>
+      <c r="G24">
+        <v>-0.009216401328522432</v>
+      </c>
+      <c r="H24">
+        <v>0.0796810115447058</v>
+      </c>
+      <c r="I24">
+        <v>-0.04228928089588366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02972492012264914</v>
+        <v>0.01283773517245773</v>
       </c>
       <c r="C25">
-        <v>0.04676670544111285</v>
+        <v>-0.06002965651084274</v>
       </c>
       <c r="D25">
-        <v>-0.0617064001229387</v>
+        <v>-0.05086367286903596</v>
       </c>
       <c r="E25">
-        <v>-0.001505849152980255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01240221471695338</v>
+      </c>
+      <c r="F25">
+        <v>0.007879957825480441</v>
+      </c>
+      <c r="G25">
+        <v>-0.01482525159705887</v>
+      </c>
+      <c r="H25">
+        <v>0.04569193456236086</v>
+      </c>
+      <c r="I25">
+        <v>-0.0317658137134223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.009524530057329571</v>
+        <v>0.006659529065763029</v>
       </c>
       <c r="C26">
-        <v>0.01414800483639712</v>
+        <v>-0.02451087109203178</v>
       </c>
       <c r="D26">
-        <v>-0.08238810153875614</v>
+        <v>-0.06951775950346827</v>
       </c>
       <c r="E26">
-        <v>0.01725971302046757</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02653959374292354</v>
+      </c>
+      <c r="F26">
+        <v>-0.02248520687768062</v>
+      </c>
+      <c r="G26">
+        <v>-0.009660535977498733</v>
+      </c>
+      <c r="H26">
+        <v>0.08993790059426907</v>
+      </c>
+      <c r="I26">
+        <v>0.041180700294089</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2406442337813215</v>
+        <v>0.3183241852431331</v>
       </c>
       <c r="C28">
-        <v>-0.2199620899056694</v>
+        <v>0.1033714562907037</v>
       </c>
       <c r="D28">
-        <v>-0.01930021001450598</v>
+        <v>0.007174338607433666</v>
       </c>
       <c r="E28">
-        <v>0.06925112847013176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05861358460562474</v>
+      </c>
+      <c r="F28">
+        <v>-0.03742907353626412</v>
+      </c>
+      <c r="G28">
+        <v>0.0260657496097752</v>
+      </c>
+      <c r="H28">
+        <v>-0.01330850280747589</v>
+      </c>
+      <c r="I28">
+        <v>0.1366045965562162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0003731115483366919</v>
+        <v>-0.002794200755524914</v>
       </c>
       <c r="C29">
-        <v>0.02127521514397168</v>
+        <v>-0.02930671822549701</v>
       </c>
       <c r="D29">
-        <v>-0.09778814505136683</v>
+        <v>-0.09968761500061574</v>
       </c>
       <c r="E29">
-        <v>0.01267185258383641</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.0389972025398321</v>
+      </c>
+      <c r="F29">
+        <v>-0.03661592736568871</v>
+      </c>
+      <c r="G29">
+        <v>0.005317157640576975</v>
+      </c>
+      <c r="H29">
+        <v>0.1430221345076494</v>
+      </c>
+      <c r="I29">
+        <v>0.01926714508494496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02579751257811043</v>
+        <v>0.01445610365616799</v>
       </c>
       <c r="C30">
-        <v>0.05701912898235143</v>
+        <v>-0.08286047323464184</v>
       </c>
       <c r="D30">
-        <v>-0.1645137351850738</v>
+        <v>-0.1605549682930583</v>
       </c>
       <c r="E30">
-        <v>0.01967855920218093</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03954275658743976</v>
+      </c>
+      <c r="F30">
+        <v>-0.03644729413512731</v>
+      </c>
+      <c r="G30">
+        <v>0.03143048914441589</v>
+      </c>
+      <c r="H30">
+        <v>0.06183338841980275</v>
+      </c>
+      <c r="I30">
+        <v>-0.07415265476349357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04652215139836393</v>
+        <v>0.01035978846079287</v>
       </c>
       <c r="C31">
-        <v>0.08308847788998489</v>
+        <v>-0.09202763042033843</v>
       </c>
       <c r="D31">
-        <v>-0.07152537287283395</v>
+        <v>-0.04189317291256504</v>
       </c>
       <c r="E31">
-        <v>0.01238285811248194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.00867215808534012</v>
+      </c>
+      <c r="F31">
+        <v>-0.01089831983206265</v>
+      </c>
+      <c r="G31">
+        <v>0.002058708489454105</v>
+      </c>
+      <c r="H31">
+        <v>0.04612224178588004</v>
+      </c>
+      <c r="I31">
+        <v>0.06026315953229655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.0212151239467428</v>
+        <v>0.01090954334015611</v>
       </c>
       <c r="C32">
-        <v>0.03014109603695796</v>
+        <v>-0.04314796136083417</v>
       </c>
       <c r="D32">
-        <v>-0.1050894537007255</v>
+        <v>-0.1106735896070145</v>
       </c>
       <c r="E32">
-        <v>0.06730790595150038</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.004231491757967823</v>
+      </c>
+      <c r="F32">
+        <v>-0.04584003043909757</v>
+      </c>
+      <c r="G32">
+        <v>0.02304939764586511</v>
+      </c>
+      <c r="H32">
+        <v>0.04392037649037703</v>
+      </c>
+      <c r="I32">
+        <v>0.07448483251561909</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01380667076577915</v>
+        <v>0.005911303303877787</v>
       </c>
       <c r="C33">
-        <v>0.03969831500269259</v>
+        <v>-0.05474050573643707</v>
       </c>
       <c r="D33">
-        <v>-0.1411502168178047</v>
+        <v>-0.1239269778208397</v>
       </c>
       <c r="E33">
-        <v>0.03756135832551937</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01666224113652876</v>
+      </c>
+      <c r="F33">
+        <v>-0.02523476257704695</v>
+      </c>
+      <c r="G33">
+        <v>0.001184619170607424</v>
+      </c>
+      <c r="H33">
+        <v>0.06809332055491102</v>
+      </c>
+      <c r="I33">
+        <v>0.007363043154594989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02533724955972062</v>
+        <v>0.006470882479910053</v>
       </c>
       <c r="C34">
-        <v>0.05782831581286048</v>
+        <v>-0.06206044241058967</v>
       </c>
       <c r="D34">
-        <v>-0.05039550814833004</v>
+        <v>-0.03080353635304858</v>
       </c>
       <c r="E34">
-        <v>-0.04806207023927088</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03022515040699739</v>
+      </c>
+      <c r="F34">
+        <v>0.03623498554243267</v>
+      </c>
+      <c r="G34">
+        <v>-0.009748566582602793</v>
+      </c>
+      <c r="H34">
+        <v>0.06165929697865023</v>
+      </c>
+      <c r="I34">
+        <v>-0.02016837158989873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001500173971123686</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.006180732409567138</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.02797673107781112</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.003784357862583033</v>
+      </c>
+      <c r="F35">
+        <v>-0.01061177750995204</v>
+      </c>
+      <c r="G35">
+        <v>0.003531359063419552</v>
+      </c>
+      <c r="H35">
+        <v>0.03624426399576868</v>
+      </c>
+      <c r="I35">
+        <v>-0.01915262125862759</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.00879742644612695</v>
+        <v>0.005718281414350394</v>
       </c>
       <c r="C36">
-        <v>0.005399221722352233</v>
+        <v>-0.01877870171672124</v>
       </c>
       <c r="D36">
-        <v>-0.08919245635717964</v>
+        <v>-0.07532708397183137</v>
       </c>
       <c r="E36">
-        <v>0.04141884568537612</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.006237410377741947</v>
+      </c>
+      <c r="F36">
+        <v>-0.03634561979959226</v>
+      </c>
+      <c r="G36">
+        <v>-0.0001884040663073697</v>
+      </c>
+      <c r="H36">
+        <v>0.06423892839855234</v>
+      </c>
+      <c r="I36">
+        <v>0.02594320352155068</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.006787246094556432</v>
+        <v>0.0121483719267229</v>
       </c>
       <c r="C38">
-        <v>0.00565232142655818</v>
+        <v>-0.01431121839174283</v>
       </c>
       <c r="D38">
-        <v>-0.08615224286282068</v>
+        <v>-0.08375696177595442</v>
       </c>
       <c r="E38">
-        <v>0.009643361831196001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01066658403457214</v>
+      </c>
+      <c r="F38">
+        <v>0.007766209241475964</v>
+      </c>
+      <c r="G38">
+        <v>0.01847286779098579</v>
+      </c>
+      <c r="H38">
+        <v>0.05466647625915608</v>
+      </c>
+      <c r="I38">
+        <v>0.03018799881621318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02080939092854611</v>
+        <v>0.004806244586884987</v>
       </c>
       <c r="C39">
-        <v>0.0556106604825457</v>
+        <v>-0.07399268243692179</v>
       </c>
       <c r="D39">
-        <v>-0.1149371155613237</v>
+        <v>-0.1030106473624157</v>
       </c>
       <c r="E39">
-        <v>-0.02037298322477794</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.04907341644779083</v>
+      </c>
+      <c r="F39">
+        <v>0.002590423815470664</v>
+      </c>
+      <c r="G39">
+        <v>-0.01030505172301882</v>
+      </c>
+      <c r="H39">
+        <v>0.1100898095878722</v>
+      </c>
+      <c r="I39">
+        <v>-0.07046244181330029</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01172749930646873</v>
+        <v>0.01052978542621989</v>
       </c>
       <c r="C40">
-        <v>0.01550446001030071</v>
+        <v>-0.0244452344068726</v>
       </c>
       <c r="D40">
-        <v>-0.1185699622660235</v>
+        <v>-0.09680736153849739</v>
       </c>
       <c r="E40">
-        <v>-0.01956045071605052</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04305964585658981</v>
+      </c>
+      <c r="F40">
+        <v>0.02172550119325868</v>
+      </c>
+      <c r="G40">
+        <v>0.06536083736095358</v>
+      </c>
+      <c r="H40">
+        <v>0.08404865799193982</v>
+      </c>
+      <c r="I40">
+        <v>0.08385514025756169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.0123226329639619</v>
+        <v>0.01287068305980259</v>
       </c>
       <c r="C41">
-        <v>0.005687380773847936</v>
+        <v>-0.01471381503569991</v>
       </c>
       <c r="D41">
-        <v>-0.05350724646007755</v>
+        <v>-0.04067397582976828</v>
       </c>
       <c r="E41">
-        <v>0.03169384282105142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0203513075017008</v>
+      </c>
+      <c r="F41">
+        <v>-0.01481651502833976</v>
+      </c>
+      <c r="G41">
+        <v>0.00762850191426444</v>
+      </c>
+      <c r="H41">
+        <v>0.03996774454655357</v>
+      </c>
+      <c r="I41">
+        <v>0.03246701582802488</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.00666467331948377</v>
+        <v>0.006747169358026562</v>
       </c>
       <c r="C43">
-        <v>0.006377187187727121</v>
+        <v>-0.01372906942785616</v>
       </c>
       <c r="D43">
-        <v>-0.06472624345967418</v>
+        <v>-0.04963532825669209</v>
       </c>
       <c r="E43">
-        <v>0.01980875488059545</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.003271411952941711</v>
+      </c>
+      <c r="F43">
+        <v>-0.01225189302046545</v>
+      </c>
+      <c r="G43">
+        <v>0.007333771371211428</v>
+      </c>
+      <c r="H43">
+        <v>0.05841501978645427</v>
+      </c>
+      <c r="I43">
+        <v>0.0159665909200551</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01717010889867571</v>
+        <v>0.009221047679063699</v>
       </c>
       <c r="C44">
-        <v>0.02419621131118889</v>
+        <v>-0.04443885278311877</v>
       </c>
       <c r="D44">
-        <v>-0.112179963565564</v>
+        <v>-0.1167451425368476</v>
       </c>
       <c r="E44">
-        <v>0.04348476549070741</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.02019635756605452</v>
+      </c>
+      <c r="F44">
+        <v>-0.02908367462188612</v>
+      </c>
+      <c r="G44">
+        <v>0.02229656055631423</v>
+      </c>
+      <c r="H44">
+        <v>0.05493933064984881</v>
+      </c>
+      <c r="I44">
+        <v>-0.06018913047034687</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.008092206637194389</v>
+        <v>-0.001326691755788081</v>
       </c>
       <c r="C46">
-        <v>0.02697687071927153</v>
+        <v>-0.03787087038463364</v>
       </c>
       <c r="D46">
-        <v>-0.09197374209145953</v>
+        <v>-0.08297107323531934</v>
       </c>
       <c r="E46">
-        <v>0.01944197177988174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.02612316040883868</v>
+      </c>
+      <c r="F46">
+        <v>-0.02915844487262686</v>
+      </c>
+      <c r="G46">
+        <v>0.01205069356702965</v>
+      </c>
+      <c r="H46">
+        <v>0.1451194613044079</v>
+      </c>
+      <c r="I46">
+        <v>0.005658089840412222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08846099047945707</v>
+        <v>0.03526521788582394</v>
       </c>
       <c r="C47">
-        <v>0.1019732306593883</v>
+        <v>-0.1238789673965377</v>
       </c>
       <c r="D47">
-        <v>-0.06101455873017807</v>
+        <v>-0.02435563289631506</v>
       </c>
       <c r="E47">
-        <v>0.02781941090420156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.02060563771566826</v>
+      </c>
+      <c r="F47">
+        <v>0.01483410980932696</v>
+      </c>
+      <c r="G47">
+        <v>-0.05055685968363854</v>
+      </c>
+      <c r="H47">
+        <v>0.03751541155534186</v>
+      </c>
+      <c r="I47">
+        <v>0.1252336792851017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.007463683635956107</v>
+        <v>0.004672206459473449</v>
       </c>
       <c r="C48">
-        <v>0.01494842424249291</v>
+        <v>-0.02691660267117036</v>
       </c>
       <c r="D48">
-        <v>-0.09349257166136417</v>
+        <v>-0.08046529797196764</v>
       </c>
       <c r="E48">
-        <v>0.05542651550504828</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.004038958029869527</v>
+      </c>
+      <c r="F48">
+        <v>-0.03838212600061971</v>
+      </c>
+      <c r="G48">
+        <v>0.0007804810169486202</v>
+      </c>
+      <c r="H48">
+        <v>0.09564820991143411</v>
+      </c>
+      <c r="I48">
+        <v>0.007996494781569887</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04305551903949373</v>
+        <v>0.01323866496554839</v>
       </c>
       <c r="C50">
-        <v>0.05959743325934396</v>
+        <v>-0.07390687762207675</v>
       </c>
       <c r="D50">
-        <v>-0.06892031476869394</v>
+        <v>-0.0461776474891818</v>
       </c>
       <c r="E50">
-        <v>0.009150170017923018</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.002063906575427757</v>
+      </c>
+      <c r="F50">
+        <v>-0.004510523118135681</v>
+      </c>
+      <c r="G50">
+        <v>0.01799097564195376</v>
+      </c>
+      <c r="H50">
+        <v>0.03124904235718891</v>
+      </c>
+      <c r="I50">
+        <v>0.09884079694142688</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.002473315775193915</v>
+        <v>0.000927858823827593</v>
       </c>
       <c r="C51">
-        <v>0.003271364714889655</v>
+        <v>-0.0149670493954536</v>
       </c>
       <c r="D51">
-        <v>-0.05644933933641771</v>
+        <v>-0.06257997962834212</v>
       </c>
       <c r="E51">
-        <v>0.0007705325523203857</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03685424910659128</v>
+      </c>
+      <c r="F51">
+        <v>-0.03755039741277648</v>
+      </c>
+      <c r="G51">
+        <v>0.03276262405161927</v>
+      </c>
+      <c r="H51">
+        <v>0.04754687309181267</v>
+      </c>
+      <c r="I51">
+        <v>0.01464059783744139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1151237382057266</v>
+        <v>0.06005973486497112</v>
       </c>
       <c r="C53">
-        <v>0.1174720339902466</v>
+        <v>-0.1569555119374108</v>
       </c>
       <c r="D53">
-        <v>-0.01985174331213158</v>
+        <v>0.01297084007904676</v>
       </c>
       <c r="E53">
-        <v>0.05606948536183273</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.0331051252135808</v>
+      </c>
+      <c r="F53">
+        <v>-0.04362463082011212</v>
+      </c>
+      <c r="G53">
+        <v>0.002031800217011636</v>
+      </c>
+      <c r="H53">
+        <v>0.0009100781890427715</v>
+      </c>
+      <c r="I53">
+        <v>0.06455406577706019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01667282782763771</v>
+        <v>0.01056422819794163</v>
       </c>
       <c r="C54">
-        <v>0.02145586075568688</v>
+        <v>-0.03899566101032771</v>
       </c>
       <c r="D54">
-        <v>-0.1003265684045314</v>
+        <v>-0.08330827297976855</v>
       </c>
       <c r="E54">
-        <v>0.0006488388281172289</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01266168009977518</v>
+      </c>
+      <c r="F54">
+        <v>0.001665973372293809</v>
+      </c>
+      <c r="G54">
+        <v>0.02421793182386697</v>
+      </c>
+      <c r="H54">
+        <v>0.09820201402360125</v>
+      </c>
+      <c r="I54">
+        <v>0.0273305899849098</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1013545191025793</v>
+        <v>0.0457217828354835</v>
       </c>
       <c r="C55">
-        <v>0.09928600074260149</v>
+        <v>-0.1290664667107797</v>
       </c>
       <c r="D55">
-        <v>-0.007685480991325631</v>
+        <v>0.02651284220298583</v>
       </c>
       <c r="E55">
-        <v>0.01262633891613023</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.001677830368058806</v>
+      </c>
+      <c r="F55">
+        <v>-0.01132223933159494</v>
+      </c>
+      <c r="G55">
+        <v>0.01256864942454134</v>
+      </c>
+      <c r="H55">
+        <v>0.005793664124043784</v>
+      </c>
+      <c r="I55">
+        <v>0.07618765662876678</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.14182510291685</v>
+        <v>0.06416522235825431</v>
       </c>
       <c r="C56">
-        <v>0.1330388837993045</v>
+        <v>-0.1882900087768238</v>
       </c>
       <c r="D56">
-        <v>-0.006197331031411534</v>
+        <v>0.0229526219565424</v>
       </c>
       <c r="E56">
-        <v>0.01376161464353813</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03262304777739462</v>
+      </c>
+      <c r="F56">
+        <v>-0.0122586931840044</v>
+      </c>
+      <c r="G56">
+        <v>0.06164186619560749</v>
+      </c>
+      <c r="H56">
+        <v>0.001574379239454895</v>
+      </c>
+      <c r="I56">
+        <v>0.09057716912307033</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.003594774986143943</v>
+        <v>0.00375999702200516</v>
       </c>
       <c r="C58">
-        <v>0.0102935036546444</v>
+        <v>-0.04575742257997777</v>
       </c>
       <c r="D58">
-        <v>-0.2206387807215185</v>
+        <v>-0.285548318002852</v>
       </c>
       <c r="E58">
-        <v>0.07887479364876419</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02321927175818662</v>
+      </c>
+      <c r="F58">
+        <v>-0.09501323967301618</v>
+      </c>
+      <c r="G58">
+        <v>0.1240307522474114</v>
+      </c>
+      <c r="H58">
+        <v>-0.09694190349080373</v>
+      </c>
+      <c r="I58">
+        <v>-0.0782719568960209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1671780364912352</v>
+        <v>0.2459965225345573</v>
       </c>
       <c r="C59">
-        <v>-0.1580817425259739</v>
+        <v>0.07055902856590961</v>
       </c>
       <c r="D59">
-        <v>-0.04730306340607493</v>
+        <v>-0.05955594739329895</v>
       </c>
       <c r="E59">
-        <v>0.0388242341863809</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.03518123426507459</v>
+      </c>
+      <c r="F59">
+        <v>-0.01412272393374436</v>
+      </c>
+      <c r="G59">
+        <v>0.002561457282484031</v>
+      </c>
+      <c r="H59">
+        <v>-0.009109627013502904</v>
+      </c>
+      <c r="I59">
+        <v>0.05619459769022198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1977046384149631</v>
+        <v>0.1547007086340405</v>
       </c>
       <c r="C60">
-        <v>0.08923222256558289</v>
+        <v>-0.1710561870361949</v>
       </c>
       <c r="D60">
-        <v>-0.1822870225326705</v>
+        <v>-0.09179284059140454</v>
       </c>
       <c r="E60">
-        <v>-0.1799437445857448</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.2294647623887519</v>
+      </c>
+      <c r="F60">
+        <v>0.1580065966510544</v>
+      </c>
+      <c r="G60">
+        <v>-0.2245373206665806</v>
+      </c>
+      <c r="H60">
+        <v>-0.2103478924937392</v>
+      </c>
+      <c r="I60">
+        <v>0.005448539371758981</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03120372141611974</v>
+        <v>0.01280040703852708</v>
       </c>
       <c r="C61">
-        <v>0.05174091889657564</v>
+        <v>-0.07015896518364478</v>
       </c>
       <c r="D61">
-        <v>-0.1028051443596622</v>
+        <v>-0.08138376109572006</v>
       </c>
       <c r="E61">
-        <v>-0.008454328479264299</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03687526829132104</v>
+      </c>
+      <c r="F61">
+        <v>0.01307012208999535</v>
+      </c>
+      <c r="G61">
+        <v>-0.02570093992513912</v>
+      </c>
+      <c r="H61">
+        <v>0.09693928762843421</v>
+      </c>
+      <c r="I61">
+        <v>-0.02174566884986195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.009052491582283693</v>
+        <v>0.002283232791631337</v>
       </c>
       <c r="C63">
-        <v>0.02535863641465697</v>
+        <v>-0.03523479358960872</v>
       </c>
       <c r="D63">
-        <v>-0.0911090191592127</v>
+        <v>-0.07000183424325239</v>
       </c>
       <c r="E63">
-        <v>0.01278187182435649</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02934867526241718</v>
+      </c>
+      <c r="F63">
+        <v>-0.0213236399454171</v>
+      </c>
+      <c r="G63">
+        <v>0.005707889321769186</v>
+      </c>
+      <c r="H63">
+        <v>0.06499078294457065</v>
+      </c>
+      <c r="I63">
+        <v>-0.008512263888645202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06499637280266578</v>
+        <v>0.02241715262892009</v>
       </c>
       <c r="C64">
-        <v>0.07865246371224453</v>
+        <v>-0.1037267915886236</v>
       </c>
       <c r="D64">
-        <v>-0.03833060242392268</v>
+        <v>-0.02580628135969671</v>
       </c>
       <c r="E64">
-        <v>0.02175677542861199</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02582055674653612</v>
+      </c>
+      <c r="F64">
+        <v>-0.023544844979777</v>
+      </c>
+      <c r="G64">
+        <v>-0.04912480852718074</v>
+      </c>
+      <c r="H64">
+        <v>0.1112990186136404</v>
+      </c>
+      <c r="I64">
+        <v>-0.0662236958531271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.0261219025122414</v>
+        <v>0.02128406042595917</v>
       </c>
       <c r="C65">
-        <v>0.01575271267774832</v>
+        <v>-0.03946185249891025</v>
       </c>
       <c r="D65">
-        <v>-0.1199060558781066</v>
+        <v>-0.1203617673201015</v>
       </c>
       <c r="E65">
-        <v>0.004303052060229308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04572964669581533</v>
+      </c>
+      <c r="F65">
+        <v>-0.00739441555755709</v>
+      </c>
+      <c r="G65">
+        <v>-0.02160114628699657</v>
+      </c>
+      <c r="H65">
+        <v>0.05456946436575522</v>
+      </c>
+      <c r="I65">
+        <v>-0.01852964898303728</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02369306123008991</v>
+        <v>0.002859740924280865</v>
       </c>
       <c r="C66">
-        <v>0.06292126496331481</v>
+        <v>-0.08851221409395313</v>
       </c>
       <c r="D66">
-        <v>-0.1201118765936968</v>
+        <v>-0.1277782665416857</v>
       </c>
       <c r="E66">
-        <v>-0.02231063350863479</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03456632778129654</v>
+      </c>
+      <c r="F66">
+        <v>0.01061458437876663</v>
+      </c>
+      <c r="G66">
+        <v>0.006663999653343081</v>
+      </c>
+      <c r="H66">
+        <v>0.0645015717326374</v>
+      </c>
+      <c r="I66">
+        <v>-0.07053481749715018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02678064365162257</v>
+        <v>0.02326312519327942</v>
       </c>
       <c r="C67">
-        <v>0.01693156469345116</v>
+        <v>-0.02674364390900145</v>
       </c>
       <c r="D67">
-        <v>-0.0405118450988393</v>
+        <v>-0.03345033751975046</v>
       </c>
       <c r="E67">
-        <v>-0.01566978585169428</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.004872318119609262</v>
+      </c>
+      <c r="F67">
+        <v>0.02947604973043948</v>
+      </c>
+      <c r="G67">
+        <v>0.007274086424676225</v>
+      </c>
+      <c r="H67">
+        <v>0.06110240619343971</v>
+      </c>
+      <c r="I67">
+        <v>0.02130884148907741</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1934035468233502</v>
+        <v>0.2691030515155314</v>
       </c>
       <c r="C68">
-        <v>-0.1724412295554356</v>
+        <v>0.07154353473266099</v>
       </c>
       <c r="D68">
-        <v>-0.03169995142989778</v>
+        <v>-0.03458948856743561</v>
       </c>
       <c r="E68">
-        <v>0.011103653936158</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.004910962717079636</v>
+      </c>
+      <c r="F68">
+        <v>-0.0293060063298969</v>
+      </c>
+      <c r="G68">
+        <v>0.06602850320557585</v>
+      </c>
+      <c r="H68">
+        <v>-0.03725376706503714</v>
+      </c>
+      <c r="I68">
+        <v>0.08945991091706189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.0668251496592739</v>
+        <v>0.02133773074194388</v>
       </c>
       <c r="C69">
-        <v>0.1135027507478713</v>
+        <v>-0.1196639408238207</v>
       </c>
       <c r="D69">
-        <v>-0.08394686773295573</v>
+        <v>-0.03725854945766777</v>
       </c>
       <c r="E69">
-        <v>0.01434557248601153</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.002324181609039594</v>
+      </c>
+      <c r="F69">
+        <v>0.01506852877416297</v>
+      </c>
+      <c r="G69">
+        <v>-0.03292642938918576</v>
+      </c>
+      <c r="H69">
+        <v>0.03717288386114848</v>
+      </c>
+      <c r="I69">
+        <v>0.08304189914872646</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.1999955538393109</v>
+        <v>0.2705718583828398</v>
       </c>
       <c r="C71">
-        <v>-0.1921885218988278</v>
+        <v>0.08660537466714653</v>
       </c>
       <c r="D71">
-        <v>-0.02598867670871502</v>
+        <v>-0.02211143942833549</v>
       </c>
       <c r="E71">
-        <v>0.0143232725946802</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.008125799773754022</v>
+      </c>
+      <c r="F71">
+        <v>-0.01249859599844545</v>
+      </c>
+      <c r="G71">
+        <v>0.03261684580933407</v>
+      </c>
+      <c r="H71">
+        <v>0.01598567333706841</v>
+      </c>
+      <c r="I71">
+        <v>0.1411032640720374</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1113337136278058</v>
+        <v>0.05959741475672663</v>
       </c>
       <c r="C72">
-        <v>0.06601625068277389</v>
+        <v>-0.1211282343576209</v>
       </c>
       <c r="D72">
-        <v>-0.1008579012389773</v>
+        <v>-0.06244145461880254</v>
       </c>
       <c r="E72">
-        <v>-0.05109814129008763</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08612620727776245</v>
+      </c>
+      <c r="F72">
+        <v>0.01564265649873808</v>
+      </c>
+      <c r="G72">
+        <v>-0.02782471099742586</v>
+      </c>
+      <c r="H72">
+        <v>0.05565447425922077</v>
+      </c>
+      <c r="I72">
+        <v>-0.06400344810350682</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1831066204182089</v>
+        <v>0.1394384620611055</v>
       </c>
       <c r="C73">
-        <v>0.05494067107689979</v>
+        <v>-0.1429301238331197</v>
       </c>
       <c r="D73">
-        <v>-0.2578031189779759</v>
+        <v>-0.1026582288243918</v>
       </c>
       <c r="E73">
-        <v>-0.2778540259629207</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.3769538839235553</v>
+      </c>
+      <c r="F73">
+        <v>0.2395342865784497</v>
+      </c>
+      <c r="G73">
+        <v>-0.4207133007310512</v>
+      </c>
+      <c r="H73">
+        <v>-0.1557703427260609</v>
+      </c>
+      <c r="I73">
+        <v>-0.03858188108233995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1144206919561163</v>
+        <v>0.05398983394006761</v>
       </c>
       <c r="C74">
-        <v>0.1092993583937423</v>
+        <v>-0.1477978802732373</v>
       </c>
       <c r="D74">
-        <v>0.0196557449550094</v>
+        <v>0.03851239612082657</v>
       </c>
       <c r="E74">
-        <v>0.04114881738691517</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01050478722681519</v>
+      </c>
+      <c r="F74">
+        <v>-0.03895496168592014</v>
+      </c>
+      <c r="G74">
+        <v>0.004825448319382405</v>
+      </c>
+      <c r="H74">
+        <v>-0.01166077206542061</v>
+      </c>
+      <c r="I74">
+        <v>0.09865224925828507</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2457354252241873</v>
+        <v>0.1188539932582596</v>
       </c>
       <c r="C75">
-        <v>0.1840732323237087</v>
+        <v>-0.2684853919121192</v>
       </c>
       <c r="D75">
-        <v>0.1095840894304676</v>
+        <v>0.1317958426684854</v>
       </c>
       <c r="E75">
-        <v>-0.01069419114768021</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09047993222598311</v>
+      </c>
+      <c r="F75">
+        <v>0.040132545453743</v>
+      </c>
+      <c r="G75">
+        <v>0.1005733224637732</v>
+      </c>
+      <c r="H75">
+        <v>-0.001765765686624429</v>
+      </c>
+      <c r="I75">
+        <v>0.06849661241259139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1481353982773134</v>
+        <v>0.06896869123114506</v>
       </c>
       <c r="C76">
-        <v>0.1285962470796175</v>
+        <v>-0.181858274473732</v>
       </c>
       <c r="D76">
-        <v>-0.01947352217563521</v>
+        <v>0.02954115568871918</v>
       </c>
       <c r="E76">
-        <v>0.01509714712909663</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02566309232575878</v>
+      </c>
+      <c r="F76">
+        <v>-0.001632318799561599</v>
+      </c>
+      <c r="G76">
+        <v>0.04291347115710829</v>
+      </c>
+      <c r="H76">
+        <v>0.02908761601980149</v>
+      </c>
+      <c r="I76">
+        <v>0.08425360851945993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01440109171653679</v>
+        <v>0.0237979271115334</v>
       </c>
       <c r="C77">
-        <v>0.07459804198551175</v>
+        <v>-0.09273078345789615</v>
       </c>
       <c r="D77">
-        <v>-0.05275536536286093</v>
+        <v>-0.2804143375193854</v>
       </c>
       <c r="E77">
-        <v>0.2291312195688357</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7655753622659602</v>
+      </c>
+      <c r="F77">
+        <v>0.3236882367951495</v>
+      </c>
+      <c r="G77">
+        <v>-0.2868894471138563</v>
+      </c>
+      <c r="H77">
+        <v>-0.2297397028047048</v>
+      </c>
+      <c r="I77">
+        <v>0.02449882637388695</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02824210380594065</v>
+        <v>0.0141451043658635</v>
       </c>
       <c r="C78">
-        <v>0.06361803133671055</v>
+        <v>-0.08280491981045984</v>
       </c>
       <c r="D78">
-        <v>-0.1489719125621669</v>
+        <v>-0.1321713057535716</v>
       </c>
       <c r="E78">
-        <v>0.04055550437543815</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.04802252758486448</v>
+      </c>
+      <c r="F78">
+        <v>-0.04811658290422029</v>
+      </c>
+      <c r="G78">
+        <v>0.0327559624682755</v>
+      </c>
+      <c r="H78">
+        <v>0.009132306963815473</v>
+      </c>
+      <c r="I78">
+        <v>0.0986854419568217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09975277372318432</v>
+        <v>0.03657309565030372</v>
       </c>
       <c r="C79">
-        <v>0.1626268510506413</v>
+        <v>-0.1852313830749446</v>
       </c>
       <c r="D79">
-        <v>0.09215553646186879</v>
+        <v>0.06795691716272451</v>
       </c>
       <c r="E79">
-        <v>0.7907695917816581</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1243248896390229</v>
+      </c>
+      <c r="F79">
+        <v>-0.8092611345937182</v>
+      </c>
+      <c r="G79">
+        <v>-0.3801243056545422</v>
+      </c>
+      <c r="H79">
+        <v>-0.2199400316162638</v>
+      </c>
+      <c r="I79">
+        <v>-0.1295575332333945</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.007022049586942532</v>
+        <v>0.0002963406426120053</v>
       </c>
       <c r="C80">
-        <v>0.04542552490108383</v>
+        <v>-0.04601087737946196</v>
       </c>
       <c r="D80">
-        <v>-0.0461635926783857</v>
+        <v>-0.04278854633004155</v>
       </c>
       <c r="E80">
-        <v>-0.004620330024907739</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02536980807058039</v>
+      </c>
+      <c r="F80">
+        <v>-0.007916881249806289</v>
+      </c>
+      <c r="G80">
+        <v>0.02636062938331701</v>
+      </c>
+      <c r="H80">
+        <v>0.0192336292687083</v>
+      </c>
+      <c r="I80">
+        <v>0.06253182008107072</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1260677046691769</v>
+        <v>0.04825788090453664</v>
       </c>
       <c r="C81">
-        <v>0.125958435014361</v>
+        <v>-0.1655247109286532</v>
       </c>
       <c r="D81">
-        <v>0.07083284490699172</v>
+        <v>0.07787564545050837</v>
       </c>
       <c r="E81">
-        <v>0.06910718536186194</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.07194349291895716</v>
+      </c>
+      <c r="F81">
+        <v>-0.04362289636462703</v>
+      </c>
+      <c r="G81">
+        <v>0.04760824746605491</v>
+      </c>
+      <c r="H81">
+        <v>0.06315838127557363</v>
+      </c>
+      <c r="I81">
+        <v>0.1190377167999123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2698186046675889</v>
+        <v>0.1039850584271871</v>
       </c>
       <c r="C82">
-        <v>0.2803706963057603</v>
+        <v>-0.328991166957549</v>
       </c>
       <c r="D82">
-        <v>0.202679200683787</v>
+        <v>0.2221749420926589</v>
       </c>
       <c r="E82">
-        <v>-0.1224076606844667</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.04972847480857201</v>
+      </c>
+      <c r="F82">
+        <v>0.126176068737955</v>
+      </c>
+      <c r="G82">
+        <v>0.0831542840703485</v>
+      </c>
+      <c r="H82">
+        <v>0.09892572558261899</v>
+      </c>
+      <c r="I82">
+        <v>0.05594886186785546</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.002886395705080739</v>
+        <v>-0.01379151176782984</v>
       </c>
       <c r="C83">
-        <v>0.0527057183955483</v>
+        <v>-0.0337329945091799</v>
       </c>
       <c r="D83">
-        <v>-0.01509696305573276</v>
+        <v>-0.03729265685297566</v>
       </c>
       <c r="E83">
-        <v>0.05920133144933168</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.09385873852929391</v>
+      </c>
+      <c r="F83">
+        <v>-0.03811567369096728</v>
+      </c>
+      <c r="G83">
+        <v>0.07637666944627407</v>
+      </c>
+      <c r="H83">
+        <v>0.03882204185023186</v>
+      </c>
+      <c r="I83">
+        <v>0.4273663142771787</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.001000207951989835</v>
+        <v>-0.002260225496271538</v>
       </c>
       <c r="C84">
-        <v>-0.001917954280344896</v>
+        <v>-0.01547890935505957</v>
       </c>
       <c r="D84">
-        <v>-0.004205819188637181</v>
+        <v>-0.04366732444326726</v>
       </c>
       <c r="E84">
-        <v>0.0007620685619062996</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.01135754804206648</v>
+      </c>
+      <c r="F84">
+        <v>-0.01787442793959658</v>
+      </c>
+      <c r="G84">
+        <v>0.04945780445434017</v>
+      </c>
+      <c r="H84">
+        <v>0.001956029172835945</v>
+      </c>
+      <c r="I84">
+        <v>-0.05055882918018228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1505425478290539</v>
+        <v>0.06374716316356265</v>
       </c>
       <c r="C85">
-        <v>0.1319767187862617</v>
+        <v>-0.1847048346829913</v>
       </c>
       <c r="D85">
-        <v>0.03796651773103851</v>
+        <v>0.086872350163762</v>
       </c>
       <c r="E85">
-        <v>0.02829205853929975</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.002579841809573357</v>
+      </c>
+      <c r="F85">
+        <v>-0.07707530418006578</v>
+      </c>
+      <c r="G85">
+        <v>0.0322214928222686</v>
+      </c>
+      <c r="H85">
+        <v>0.005454996627100462</v>
+      </c>
+      <c r="I85">
+        <v>0.07875417685556689</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01301943324107306</v>
+        <v>0.01068668995162326</v>
       </c>
       <c r="C86">
-        <v>0.01103270842994173</v>
+        <v>-0.02918498142062484</v>
       </c>
       <c r="D86">
-        <v>-0.07783227827820458</v>
+        <v>-0.1061890594918934</v>
       </c>
       <c r="E86">
-        <v>0.05152272359109345</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04073666854013723</v>
+      </c>
+      <c r="F86">
+        <v>0.0144904224394608</v>
+      </c>
+      <c r="G86">
+        <v>-0.02660828651411479</v>
+      </c>
+      <c r="H86">
+        <v>0.001197364184609223</v>
+      </c>
+      <c r="I86">
+        <v>0.08427507907672929</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01533242367290279</v>
+        <v>0.008817719451911201</v>
       </c>
       <c r="C87">
-        <v>0.0262512339466718</v>
+        <v>-0.05341771689735894</v>
       </c>
       <c r="D87">
-        <v>-0.1295895147100265</v>
+        <v>-0.1444710127021584</v>
       </c>
       <c r="E87">
-        <v>0.04833828793462972</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.004176630776059742</v>
+      </c>
+      <c r="F87">
+        <v>-0.04119616589906733</v>
+      </c>
+      <c r="G87">
+        <v>0.06496282649688809</v>
+      </c>
+      <c r="H87">
+        <v>0.02775924080971593</v>
+      </c>
+      <c r="I87">
+        <v>-0.01856973818630946</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05868317172818941</v>
+        <v>0.03081379024287966</v>
       </c>
       <c r="C88">
-        <v>0.04470706901934474</v>
+        <v>-0.06718189308882719</v>
       </c>
       <c r="D88">
-        <v>-0.02794922416713907</v>
+        <v>-0.005218183408230403</v>
       </c>
       <c r="E88">
-        <v>0.03062161317102299</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.0138795667980568</v>
+      </c>
+      <c r="F88">
+        <v>-0.02119268204889753</v>
+      </c>
+      <c r="G88">
+        <v>-0.0003013518360647763</v>
+      </c>
+      <c r="H88">
+        <v>0.02608477069783717</v>
+      </c>
+      <c r="I88">
+        <v>0.02474520665897278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.2991484336686883</v>
+        <v>0.4104293539828339</v>
       </c>
       <c r="C89">
-        <v>-0.3517987410377479</v>
+        <v>0.1727709169915743</v>
       </c>
       <c r="D89">
-        <v>-0.01458470570613322</v>
+        <v>-0.02171977238693629</v>
       </c>
       <c r="E89">
-        <v>0.09899383379545788</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02617801299527295</v>
+      </c>
+      <c r="F89">
+        <v>-0.08029076362390272</v>
+      </c>
+      <c r="G89">
+        <v>0.06530472022411199</v>
+      </c>
+      <c r="H89">
+        <v>0.1441340596693027</v>
+      </c>
+      <c r="I89">
+        <v>-0.2332298220850676</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2387022057813409</v>
+        <v>0.3137251463561478</v>
       </c>
       <c r="C90">
-        <v>-0.2572234677964072</v>
+        <v>0.1140886830228152</v>
       </c>
       <c r="D90">
-        <v>-0.0342913905391066</v>
+        <v>-0.0335273016814238</v>
       </c>
       <c r="E90">
-        <v>-0.006812351084058308</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01542739762830796</v>
+      </c>
+      <c r="F90">
+        <v>0.01795031990639369</v>
+      </c>
+      <c r="G90">
+        <v>0.0620923410885745</v>
+      </c>
+      <c r="H90">
+        <v>-0.02227498757520719</v>
+      </c>
+      <c r="I90">
+        <v>0.0769360128592161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1657053950040648</v>
+        <v>0.0736289456481786</v>
       </c>
       <c r="C91">
-        <v>0.1773485293004244</v>
+        <v>-0.2122768306490739</v>
       </c>
       <c r="D91">
-        <v>0.09234067393562916</v>
+        <v>0.1044829998584912</v>
       </c>
       <c r="E91">
-        <v>0.09836872262568062</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.0666191223094746</v>
+      </c>
+      <c r="F91">
+        <v>-0.06733040101074327</v>
+      </c>
+      <c r="G91">
+        <v>0.01186865917692325</v>
+      </c>
+      <c r="H91">
+        <v>0.006924900885494632</v>
+      </c>
+      <c r="I91">
+        <v>0.1050144703314662</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2225022573471845</v>
+        <v>0.3369546928057608</v>
       </c>
       <c r="C92">
-        <v>-0.2726032136058211</v>
+        <v>0.148128013515838</v>
       </c>
       <c r="D92">
-        <v>0.05135568010221354</v>
+        <v>0.001281880190660065</v>
       </c>
       <c r="E92">
-        <v>0.05621081715595976</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.07285460076060864</v>
+      </c>
+      <c r="F92">
+        <v>-0.01396140549543951</v>
+      </c>
+      <c r="G92">
+        <v>0.01842303490352385</v>
+      </c>
+      <c r="H92">
+        <v>0.02968635672279593</v>
+      </c>
+      <c r="I92">
+        <v>-0.2330576619301946</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2622722198914067</v>
+        <v>0.3329335021256327</v>
       </c>
       <c r="C93">
-        <v>-0.2686224052351534</v>
+        <v>0.1222580962890244</v>
       </c>
       <c r="D93">
-        <v>-0.01361013901556145</v>
+        <v>0.0154063074953703</v>
       </c>
       <c r="E93">
-        <v>0.002610818081428041</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02726555271021016</v>
+      </c>
+      <c r="F93">
+        <v>-0.01100349360363033</v>
+      </c>
+      <c r="G93">
+        <v>-0.02086002872831392</v>
+      </c>
+      <c r="H93">
+        <v>-0.003942021693502636</v>
+      </c>
+      <c r="I93">
+        <v>0.06682455981766898</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.312480826543348</v>
+        <v>0.1424963173635104</v>
       </c>
       <c r="C94">
-        <v>0.2520548810665199</v>
+        <v>-0.3590328360598781</v>
       </c>
       <c r="D94">
-        <v>0.3624861965921115</v>
+        <v>0.3414144967370374</v>
       </c>
       <c r="E94">
-        <v>-0.1966755750280023</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.04637194673347119</v>
+      </c>
+      <c r="F94">
+        <v>0.112589302728941</v>
+      </c>
+      <c r="G94">
+        <v>0.3065698493953645</v>
+      </c>
+      <c r="H94">
+        <v>-0.05414315985007316</v>
+      </c>
+      <c r="I94">
+        <v>-0.3561365197725762</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01671050458731077</v>
+        <v>0.01869060069148238</v>
       </c>
       <c r="C95">
-        <v>0.0354909750671586</v>
+        <v>-0.05878701550076554</v>
       </c>
       <c r="D95">
-        <v>-0.04667355870428717</v>
+        <v>-0.1089167629201682</v>
       </c>
       <c r="E95">
-        <v>0.09958967732141337</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1908154589158439</v>
+      </c>
+      <c r="F95">
+        <v>0.07494182708140597</v>
+      </c>
+      <c r="G95">
+        <v>-0.1311725699538446</v>
+      </c>
+      <c r="H95">
+        <v>0.3879045741955225</v>
+      </c>
+      <c r="I95">
+        <v>-0.4629740226299023</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001059117080125127</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0002026387164238593</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.001221572379703561</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.001617226863167345</v>
+      </c>
+      <c r="F97">
+        <v>0.001823439688619762</v>
+      </c>
+      <c r="G97">
+        <v>-0.001551911421434022</v>
+      </c>
+      <c r="H97">
+        <v>0.0002185358144799649</v>
+      </c>
+      <c r="I97">
+        <v>-0.002463074513932687</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1527164937064568</v>
+        <v>0.1161347451647913</v>
       </c>
       <c r="C98">
-        <v>0.07158173097284208</v>
+        <v>-0.1440833817956221</v>
       </c>
       <c r="D98">
-        <v>-0.1380430106906095</v>
+        <v>-0.06401150562423188</v>
       </c>
       <c r="E98">
-        <v>-0.202172751216447</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2666961907562794</v>
+      </c>
+      <c r="F98">
+        <v>0.1682896023999348</v>
+      </c>
+      <c r="G98">
+        <v>-0.2638198232197807</v>
+      </c>
+      <c r="H98">
+        <v>-0.1666181549788369</v>
+      </c>
+      <c r="I98">
+        <v>-0.0252584782457697</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.0007994102007096367</v>
+        <v>-0.002434040903678554</v>
       </c>
       <c r="C101">
-        <v>0.02069448208096415</v>
+        <v>-0.02874793339557572</v>
       </c>
       <c r="D101">
-        <v>-0.09786431327187511</v>
+        <v>-0.09924650245908959</v>
       </c>
       <c r="E101">
-        <v>0.0139447392022987</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03827628799935971</v>
+      </c>
+      <c r="F101">
+        <v>-0.03706639456121517</v>
+      </c>
+      <c r="G101">
+        <v>0.006016181512641832</v>
+      </c>
+      <c r="H101">
+        <v>0.1441464090800304</v>
+      </c>
+      <c r="I101">
+        <v>0.01937403928707411</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1159278120528982</v>
+        <v>0.03574651048817276</v>
       </c>
       <c r="C102">
-        <v>0.1489910495646917</v>
+        <v>-0.1531500158195951</v>
       </c>
       <c r="D102">
-        <v>0.06667028327802163</v>
+        <v>0.09005554717552117</v>
       </c>
       <c r="E102">
-        <v>-0.04126591269720759</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03020857621155447</v>
+      </c>
+      <c r="F102">
+        <v>0.0674748527736939</v>
+      </c>
+      <c r="G102">
+        <v>-0.01099076032206285</v>
+      </c>
+      <c r="H102">
+        <v>0.05156673770489317</v>
+      </c>
+      <c r="I102">
+        <v>0.02242829200821219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
